--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/466d83af7520988d/Desktop/assm 2 bussiness/datapandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{7A6F3208-AC53-4837-BCB0-6AC91A133730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BCDE3C-A8E9-4F9B-9E73-20F5CBEF0EAA}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{7A6F3208-AC53-4837-BCB0-6AC91A133730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F311EFE6-1D7E-49EC-AB26-AAFE9CE3CDFD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73BA2138-A58C-4A4B-9695-9BAE81829B18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Product ID</t>
   </si>
@@ -59,119 +59,137 @@
     <t>Laptop Dell</t>
   </si>
   <si>
-    <t>ABC Electronics</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
-    <t>XYZ Mobile</t>
-  </si>
-  <si>
-    <t>Tablet Apple</t>
-  </si>
-  <si>
-    <t>Refrigerator LG</t>
-  </si>
-  <si>
-    <t>PQR Appliances</t>
-  </si>
-  <si>
     <t>Appliances</t>
   </si>
   <si>
     <t>Microwave Samsung</t>
   </si>
   <si>
-    <t>Washing Machine LG</t>
-  </si>
-  <si>
     <t>Speaker Bose</t>
   </si>
   <si>
-    <t>Printer HP</t>
-  </si>
-  <si>
-    <t>XYZ Printers</t>
-  </si>
-  <si>
-    <t>Air Conditioner Panasonic</t>
-  </si>
-  <si>
     <t>8*</t>
   </si>
   <si>
     <t>Camera Canon@</t>
   </si>
   <si>
-    <t>XYZ Cameras*</t>
-  </si>
-  <si>
     <t>200@</t>
   </si>
   <si>
-    <t>PQR Appliances@</t>
-  </si>
-  <si>
     <t>Appliances&amp;</t>
   </si>
   <si>
+    <t>Appliances$</t>
+  </si>
+  <si>
+    <t>Electronics$</t>
+  </si>
+  <si>
+    <t>50!</t>
+  </si>
+  <si>
+    <t>150&amp;</t>
+  </si>
+  <si>
+    <t>1200@</t>
+  </si>
+  <si>
+    <t>1007#</t>
+  </si>
+  <si>
+    <t>1013&amp;</t>
+  </si>
+  <si>
+    <t>Appliances#</t>
+  </si>
+  <si>
+    <t>Electronics#</t>
+  </si>
+  <si>
+    <t>Smartphone Samsung#</t>
+  </si>
+  <si>
+    <t>Smartwatch Apple@</t>
+  </si>
+  <si>
+    <t>12^00</t>
+  </si>
+  <si>
+    <t>Blen#derPhilips</t>
+  </si>
+  <si>
+    <t>VacuumCleanerDyson</t>
+  </si>
+  <si>
+    <t>Washing Machine lg</t>
+  </si>
+  <si>
+    <t>Tv Sony!</t>
+  </si>
+  <si>
+    <t>Washing@ Machine Lg</t>
+  </si>
+  <si>
+    <t>TabletApple</t>
+  </si>
+  <si>
+    <t>Abc Electronics</t>
+  </si>
+  <si>
+    <t>Xyz Mobile</t>
+  </si>
+  <si>
+    <t>Pqr Appliances</t>
+  </si>
+  <si>
+    <t>Xyz Printers</t>
+  </si>
+  <si>
+    <t>Xyz Cameras*</t>
+  </si>
+  <si>
+    <t>AbcElectronics</t>
+  </si>
+  <si>
+    <t>XyzMobile</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>appliances</t>
+  </si>
+  <si>
+    <t>Pqr* Appliances</t>
+  </si>
+  <si>
     <t>Headphones Sony$</t>
   </si>
   <si>
-    <t>Appliances$</t>
-  </si>
-  <si>
-    <t>Electronics$</t>
-  </si>
-  <si>
-    <t>50!</t>
-  </si>
-  <si>
-    <t>150&amp;</t>
-  </si>
-  <si>
-    <t>1200@</t>
-  </si>
-  <si>
-    <t>TV Sony!</t>
-  </si>
-  <si>
-    <t>1007#</t>
-  </si>
-  <si>
-    <t>1013&amp;</t>
-  </si>
-  <si>
-    <t>Washing@ Machine LG</t>
-  </si>
-  <si>
-    <t>Vacuum Cleaner! Dyson</t>
-  </si>
-  <si>
-    <t>Appliances#</t>
-  </si>
-  <si>
-    <t>Electronics#</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung#</t>
-  </si>
-  <si>
-    <t>Blen#der Philips</t>
-  </si>
-  <si>
-    <t>Smartwatch Apple@</t>
-  </si>
-  <si>
-    <t>PQR Applian@ces</t>
+    <t>refrigerator Lg</t>
+  </si>
+  <si>
+    <t>air Conditioner Panasonic</t>
+  </si>
+  <si>
+    <t>pqr Appliances</t>
+  </si>
+  <si>
+    <t>abc Electronics</t>
+  </si>
+  <si>
+    <t>PrinterHp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +220,12 @@
     <font>
       <b/>
       <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -243,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +282,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2619C66D-B33A-450E-9BC1-1CF4C824F422}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,51 +660,51 @@
       <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3">
-        <v>600</v>
+        <v>1010</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -679,39 +712,39 @@
         <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>900</v>
+        <v>1003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,60 +752,60 @@
         <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,7 +813,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>400</v>
@@ -789,30 +822,30 @@
         <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>300</v>
+        <v>1015</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,19 +853,19 @@
         <v>1011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -840,47 +873,47 @@
         <v>1012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>350</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
         <v>600</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1014</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <v>200</v>
@@ -888,59 +921,59 @@
       <c r="D15" s="2">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>1002</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>600</v>
       </c>
       <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1002</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3">
         <v>600</v>
@@ -949,18 +982,18 @@
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1008</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>1000</v>
@@ -969,18 +1002,44 @@
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{E251401A-B789-487D-A68F-71D8C28BA1B5}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{637BA90E-10D3-48AE-913D-DC26CDFA6353}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{637BA90E-10D3-48AE-913D-DC26CDFA6353}"/>
     <hyperlink ref="C17" r:id="rId3" xr:uid="{0664591F-0151-414E-991A-65C4FB86E5DC}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{EDD37BAD-CB78-4934-8A26-2E9BE3230B9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>